--- a/medicine/Enfance/La_Petite_Josette/La_Petite_Josette.xlsx
+++ b/medicine/Enfance/La_Petite_Josette/La_Petite_Josette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Petite Josette est un album d'Anne Sylvestre pour les enfants, paru dans sa maison de production en 1979. 
 </t>
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet album paraît en 1979[1], et rassemble trois aventures de Josette, parues auparavant dans trois 45 tours : La Petite Josette et ses parents (1979)[2], La Petite Josette et les moustaches (1976)[3], et La Petite Josette et le carnaval (1977)[4].
-L'album reparaît chez EPM Musique[5] dans une version augmentée en 1995, avec deux nouvelles chansons pour La Petite Josette et ses parents, et une nouvelle partie : La Petite Josette et le travail de maman. L'ordre des aventures est également différent. C'est le huitième volume dans la collection des Fabulettes.
-En 2001 paraît un livre pour enfants d'Anne Sylvestre, La Petite Josette, illustré par Pef[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet album paraît en 1979, et rassemble trois aventures de Josette, parues auparavant dans trois 45 tours : La Petite Josette et ses parents (1979), La Petite Josette et les moustaches (1976), et La Petite Josette et le carnaval (1977).
+L'album reparaît chez EPM Musique dans une version augmentée en 1995, avec deux nouvelles chansons pour La Petite Josette et ses parents, et une nouvelle partie : La Petite Josette et le travail de maman. L'ordre des aventures est également différent. C'est le huitième volume dans la collection des Fabulettes.
+En 2001 paraît un livre pour enfants d'Anne Sylvestre, La Petite Josette, illustré par Pef.
 En 2009, Anne Sylvestre sort un album intitulé Le Retour de la petite Josette.
 </t>
         </is>
@@ -547,10 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Version 1979
-Toutes les chansons sont écrites et composées par Anne Sylvestre.
-Version 1995
-Toutes les chansons sont écrites et composées par Anne Sylvestre.
+          <t>Version 1979</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les chansons sont écrites et composées par Anne Sylvestre.
 </t>
         </is>
       </c>
@@ -576,18 +593,58 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Titres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Version 1995</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Toutes les chansons sont écrites et composées par Anne Sylvestre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>La_Petite_Josette</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Petite_Josette</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Production : Anne Sylvestre
 Direction Musicale : François Rauber
 Paroles et musique : Anne Sylvestre
 Prise de son : Gérard Pillant (Studio E.T.A. Gaffinel)
-Poupée : Geneviève Ferrier[3]
+Poupée : Geneviève Ferrier
 Photographie : Bernard Dupont
-Maquette et dessin : Pef[1]</t>
+Maquette et dessin : Pef</t>
         </is>
       </c>
     </row>
